--- a/data/Mensuales 2004 a 2023 con Dsoja.xlsx
+++ b/data/Mensuales 2004 a 2023 con Dsoja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70F20BD-F8F7-4C46-B755-87CDC415A8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B58385-62C4-CB48-94F4-6178CB4F476F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1840" windowWidth="38400" windowHeight="21600" xr2:uid="{E31354DE-09CD-2F42-AC6C-37C2612E1573}"/>
   </bookViews>
